--- a/biology/Zoologie/Canis/Canis.xlsx
+++ b/biology/Zoologie/Canis/Canis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis est un genre de mammifères carnivores de la famille des Canidés qui regroupe les chiens, les dingos, la plupart des loups, les coyotes et les chacals. Il est, comme tous les Canidés, pourvu d'un excellent odorat. Ses pupilles sont rondes.
-La classification ou le statut de certaines populations est encore incertain car les Canidés forment une famille biologique qui n'a évolué que récemment et des croisements fertiles ont eu lieu et se perpétuent encore entre certaines espèces du genre Canis, compliquant d'autant plus les recherches faites sur les différents groupes dans ce taxon, dont l'histoire est également difficile à retracer tant les vestiges sont délicats à différencier[1],[2]. Par exemple, certaines espèces encore récemment incluses dans le genre Canis sont désormais considérées former un genre distinct, Lupulella[3],[4].
+La classification ou le statut de certaines populations est encore incertain car les Canidés forment une famille biologique qui n'a évolué que récemment et des croisements fertiles ont eu lieu et se perpétuent encore entre certaines espèces du genre Canis, compliquant d'autant plus les recherches faites sur les différents groupes dans ce taxon, dont l'histoire est également difficile à retracer tant les vestiges sont délicats à différencier,. Par exemple, certaines espèces encore récemment incluses dans le genre Canis sont désormais considérées former un genre distinct, Lupulella,.
 </t>
         </is>
       </c>
@@ -512,15 +524,13 @@
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre compte six espèces actuelles (selon ITIS) :
 Auquel on peut ajouter quatre espèces au statut discuté :
 Et peut-être 52 espèces fossiles :
-Les espèces discutées
-Les études génétiques réalisées au XXIe siècle confirment que le Loup de l'Est serait bien une espèce du Nouveau Monde (Canis lycaon) à part entière, ainsi qu'il était classé autrefois, et non pas une sous-espèce (Canis lupus lycaon) du Loup gris comme on l'a suggéré par la suite[21].
-Canis himalayensis Aggarwal, Kivisild, Ramadevi &amp; Singh, 2007 et Canis indica Aggarwal, Kivisild, Ramadevi &amp; Singh, 2007 sont des taxons qui ont été créés en 2007[22].
-Les chacals d'Afrique orientale et australe (chacal à flanc rayé ex-Canis adustus et chacal à chabraques ex-Canus mesomelas) sont désormais considérés comme faisant partie d'un genre distinct, Lupulella[3],[4].
 </t>
         </is>
       </c>
@@ -546,19 +556,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie et systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les espèces discutées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études génétiques réalisées au XXIe siècle confirment que le Loup de l'Est serait bien une espèce du Nouveau Monde (Canis lycaon) à part entière, ainsi qu'il était classé autrefois, et non pas une sous-espèce (Canis lupus lycaon) du Loup gris comme on l'a suggéré par la suite.
+Canis himalayensis Aggarwal, Kivisild, Ramadevi &amp; Singh, 2007 et Canis indica Aggarwal, Kivisild, Ramadevi &amp; Singh, 2007 sont des taxons qui ont été créés en 2007.
+Les chacals d'Afrique orientale et australe (chacal à flanc rayé ex-Canis adustus et chacal à chabraques ex-Canus mesomelas) sont désormais considérés comme faisant partie d'un genre distinct, Lupulella,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juillet 2014)[23] et ITIS      (11 juillet 2014)[24] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juillet 2014) et ITIS      (11 juillet 2014) :
 Canis adustus Sundevall, 1847
 Canis aureus Linnaeus, 1758
 Canis latrans Say, 1823
 Canis lupus Linnaeus, 1758
 Canis mesomelas Schreber, 1775
 Canis simensis Rüppell, 1840
-Selon Mammal Species of the World (version 3, 2005)  (11 juillet 2014)[25] :
+Selon Mammal Species of the World (version 3, 2005)  (11 juillet 2014) :
 Canis adustus
 sous-espèce Canis adustus adustus
 sous-espèce Canis adustus bweha
@@ -644,7 +695,7 @@
 Canis simensis
 sous-espèce Canis simensis citernii
 sous-espèce Canis simensis simensis
-Selon NCBI  (11 juillet 2014)[26] :
+Selon NCBI  (11 juillet 2014) :
 Canis adustus
 Canis aureus
 sous-espèce Canis himalayensis
@@ -673,7 +724,7 @@
 sous-espèce Canis mesomelas elongae
 Canis rufus
 Canis simensis
-Selon Paleobiology Database                   (7 novembre 2023)[27] :
+Selon Paleobiology Database                   (7 novembre 2023) :
 Canis (Epicyon)
 Canis accitanus
 Canis adoxus
